--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_18-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_18-50.xlsx
@@ -140,6 +140,9 @@
     <t>FLACORT 30MG 20 TAB</t>
   </si>
   <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
@@ -255,6 +258,9 @@
   </si>
   <si>
     <t>T4-THYRO 100MCG 100 TABLETS</t>
+  </si>
+  <si>
+    <t>TARGOFLOXIN 750 MG 10 F.C.TABS.</t>
   </si>
   <si>
     <t>TAVONIZA 20 MG 20 F.C.TABS.</t>
@@ -1487,17 +1493,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1505,7 +1511,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1513,17 +1519,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1539,17 +1545,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1565,17 +1571,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1583,7 +1589,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1591,13 +1597,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1617,17 +1623,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>51.299999999999997</v>
+        <v>22</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1635,7 +1641,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1643,13 +1649,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>49</v>
+        <v>51.299999999999997</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1669,17 +1675,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1687,7 +1693,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1695,17 +1701,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1721,13 +1727,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1747,17 +1753,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1773,17 +1779,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1799,17 +1805,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1817,7 +1823,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1825,17 +1831,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1851,17 +1857,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1869,7 +1875,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1877,17 +1883,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1895,7 +1901,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1903,13 +1909,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1929,17 +1935,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1955,17 +1961,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1981,17 +1987,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1999,7 +2005,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2007,13 +2013,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>80.75</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2033,17 +2039,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>47</v>
+        <v>80.75</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2059,17 +2065,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>-86.5</v>
+        <v>47</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2085,17 +2091,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>36</v>
+        <v>-86.5</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2117,7 +2123,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2137,13 +2143,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2163,17 +2169,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2181,7 +2187,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2189,17 +2195,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2215,13 +2221,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>-23</v>
+        <v>72</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2241,17 +2247,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>58</v>
+        <v>-23</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2267,17 +2273,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2293,17 +2299,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>59</v>
+        <v>92.120000000000005</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2319,17 +2325,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2351,11 +2357,11 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2371,13 +2377,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2397,17 +2403,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2415,7 +2421,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2423,17 +2429,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2441,7 +2447,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2449,13 +2455,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2467,7 +2473,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2475,17 +2481,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2493,7 +2499,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2501,51 +2507,103 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="26.25" customHeight="1">
-      <c r="K67" s="10">
-        <v>3176.1700000000001</v>
-      </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="6">
+        <v>64</v>
+      </c>
+      <c t="s" r="B67" s="7">
         <v>96</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c t="s" r="F68" s="12">
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c t="s" r="H67" s="8">
+        <v>52</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="9">
+        <v>48</v>
+      </c>
+      <c r="M67" s="9"/>
+      <c t="s" r="N67" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" ht="25.5" customHeight="1">
+      <c r="A68" s="6">
+        <v>65</v>
+      </c>
+      <c t="s" r="B68" s="7">
         <v>97</v>
       </c>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-      <c t="s" r="I68" s="14">
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c t="s" r="H68" s="8">
+        <v>66</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9">
+        <v>20</v>
+      </c>
+      <c r="M68" s="9"/>
+      <c t="s" r="N68" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="K69" s="10">
+        <v>3327.29</v>
+      </c>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="11">
         <v>98</v>
       </c>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c t="s" r="F70" s="12">
+        <v>99</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c t="s" r="I70" s="14">
+        <v>100</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="206">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2742,10 +2800,16 @@
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:N68"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:N70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
